--- a/eCAMI/mapped_reads_exo_sep.xlsx
+++ b/eCAMI/mapped_reads_exo_sep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/CRDS_Calcs/eCAMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="8_{4E18D39F-49CA-4B13-AD81-1CC0A4F3384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD2B453-5746-440E-B40C-9D6AC850963D}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="8_{4E18D39F-49CA-4B13-AD81-1CC0A4F3384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FEED70-4C6E-4573-9199-783C1F038C6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BADEA35-55E2-4862-8C07-FC655D6CC413}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K332" sqref="K332"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/eCAMI/mapped_reads_exo_sep.xlsx
+++ b/eCAMI/mapped_reads_exo_sep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/CRDS_Calcs/eCAMI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/eCAMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{4E18D39F-49CA-4B13-AD81-1CC0A4F3384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FEED70-4C6E-4573-9199-783C1F038C6B}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="8_{4E18D39F-49CA-4B13-AD81-1CC0A4F3384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40157301-CBF0-4133-8E72-AA28998570DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BADEA35-55E2-4862-8C07-FC655D6CC413}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BADEA35-55E2-4862-8C07-FC655D6CC413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
